--- a/biology/Zoologie/Hippotraginae/Hippotraginae.xlsx
+++ b/biology/Zoologie/Hippotraginae/Hippotraginae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hippotraginés
 Les hippotraginés (Hippotraginae) sont une sous-famille de mammifères ruminants de la famille des bovidés.
@@ -512,9 +524,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Liste des genres et espèces actuels selon Mammal Species of the World (version 3, 2005)  (5 mars 2018)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Liste des genres et espèces actuels selon Mammal Species of the World (version 3, 2005)  (5 mars 2018) :
 Addax Rafinesque, 1815 - l'Addax
 Addax nasomaculatus
 Hippotragus Sundevall, 1846 - les hippotragues
@@ -559,9 +573,14 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Place au sein de la famille
-Phylogénie des Bovidés par tribus, d'après Calamari (2021)[2] :
-Phylogénie interne</t>
+          <t>Place au sein de la famille</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Phylogénie des Bovidés par tribus, d'après Calamari (2021) :
+</t>
         </is>
       </c>
     </row>
